--- a/ruoyi-admin/src/main/resources/templates/客户导入模板.xlsx
+++ b/ruoyi-admin/src/main/resources/templates/客户导入模板.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="客户导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>联系人昵称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>广东省揭阳市空港经济区炮台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>公司备注测试01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,6 +396,14 @@
   </si>
   <si>
     <t>同一公司有多个联系人时，请分多行录入，保持公司信息一致。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省深圳市福田区xxxxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省深圳市福田区xxxxxx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +860,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L15" sqref="A1:XFD1048576"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1034,99 +1038,99 @@
         <v>48</v>
       </c>
       <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
         <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
       </c>
       <c r="T2">
         <v>11122</v>
       </c>
       <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>61</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>62</v>
       </c>
       <c r="AG2" s="8">
         <v>33025</v>
       </c>
       <c r="AH2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" t="s">
         <v>70</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>71</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>72</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
       </c>
       <c r="L3" s="8">
         <v>45329</v>
       </c>
       <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
         <v>75</v>
-      </c>
-      <c r="N3" t="s">
-        <v>76</v>
       </c>
       <c r="O3" s="8">
         <v>45292</v>
@@ -1135,66 +1139,66 @@
         <v>47</v>
       </c>
       <c r="Q3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
         <v>77</v>
-      </c>
-      <c r="R3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" t="s">
-        <v>78</v>
       </c>
       <c r="T3">
         <v>11122</v>
       </c>
       <c r="U3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
+        <v>78</v>
+      </c>
+      <c r="W3" t="s">
         <v>79</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>80</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>83</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>84</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>88</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>89</v>
       </c>
       <c r="AG3" s="8">
         <v>33086</v>
       </c>
       <c r="AH3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/ruoyi-admin/src/main/resources/templates/客户导入模板.xlsx
+++ b/ruoyi-admin/src/main/resources/templates/客户导入模板.xlsx
@@ -71,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>标签</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>客户分组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -404,6 +400,10 @@
   </si>
   <si>
     <t>广东省深圳市福田区xxxxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标签</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -898,10 +898,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -910,295 +910,295 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="8">
         <v>45329</v>
       </c>
       <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
       </c>
       <c r="O2" s="8">
         <v>45292</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
         <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
       </c>
       <c r="T2">
         <v>11122</v>
       </c>
       <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
       </c>
       <c r="AG2" s="8">
         <v>33025</v>
       </c>
       <c r="AH2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>71</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
       </c>
       <c r="L3" s="8">
         <v>45329</v>
       </c>
       <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>74</v>
-      </c>
-      <c r="N3" t="s">
-        <v>75</v>
       </c>
       <c r="O3" s="8">
         <v>45292</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" t="s">
         <v>76</v>
-      </c>
-      <c r="R3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S3" t="s">
-        <v>77</v>
       </c>
       <c r="T3">
         <v>11122</v>
       </c>
       <c r="U3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" t="s">
         <v>78</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>79</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>87</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>88</v>
       </c>
       <c r="AG3" s="8">
         <v>33086</v>
       </c>
       <c r="AH3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
         <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/ruoyi-admin/src/main/resources/templates/客户导入模板.xlsx
+++ b/ruoyi-admin/src/main/resources/templates/客户导入模板.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34980" yWindow="1485" windowWidth="28800" windowHeight="15765"/>
+    <workbookView xWindow="-34980" yWindow="1485" windowWidth="28800" windowHeight="15765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="时区" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>联系人昵称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -405,13 +406,91 @@
   <si>
     <t>客户标签</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代号</t>
+  </si>
+  <si>
+    <t>时区名称</t>
+  </si>
+  <si>
+    <t>零时区 伦敦</t>
+  </si>
+  <si>
+    <t>东一区 罗马，巴黎</t>
+  </si>
+  <si>
+    <t>东二区 雅典，以色列</t>
+  </si>
+  <si>
+    <t>东三区 莫斯科，科威特</t>
+  </si>
+  <si>
+    <t>东四区 喀布尔</t>
+  </si>
+  <si>
+    <t>东五区 伊斯兰堡，卡拉奇</t>
+  </si>
+  <si>
+    <t>东六区 阿拉木图，科伦坡</t>
+  </si>
+  <si>
+    <t>东七区 曼谷，雅加达</t>
+  </si>
+  <si>
+    <t>东八区 北京，香港，台湾</t>
+  </si>
+  <si>
+    <t>东九区 东京</t>
+  </si>
+  <si>
+    <t>东十区 悉尼</t>
+  </si>
+  <si>
+    <t>东十一区 霍尼亚拉，马加丹</t>
+  </si>
+  <si>
+    <t>东西十二区 奥克兰</t>
+  </si>
+  <si>
+    <t>西十一区 帕果帕果，阿洛菲</t>
+  </si>
+  <si>
+    <t>西十区 夏威夷</t>
+  </si>
+  <si>
+    <t>西九区 阿拉斯加</t>
+  </si>
+  <si>
+    <t>西八区 洛杉矶，旧金山</t>
+  </si>
+  <si>
+    <t>西七区 盐湖城，丹佛，凤凰城</t>
+  </si>
+  <si>
+    <t>西六区 芝加哥，休斯顿，亚特兰大</t>
+  </si>
+  <si>
+    <t>西五区 纽约，华盛顿，波士顿</t>
+  </si>
+  <si>
+    <t>西四区 加拿大，加拉加斯</t>
+  </si>
+  <si>
+    <t>西三区 巴西利亚</t>
+  </si>
+  <si>
+    <t>西二区 协调时间时</t>
+  </si>
+  <si>
+    <t>西一区 佛得角群岛</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,8 +540,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,8 +572,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -505,6 +602,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE3E3E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE3E3E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE3E3E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE3E3E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +690,18 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -859,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1211,4 +1372,225 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>